--- a/datasets/neutre_mehdi.xlsx
+++ b/datasets/neutre_mehdi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIGNETWORK\Desktop\PFE\dataset\project\git-one\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BCDF2-604E-4543-98F8-4B8B4818E6C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15AB5F-1DDD-4E95-83F3-846AB634DE67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4302,13 +4302,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.08984375" customWidth="1"/>
+    <col min="1" max="1" width="90.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
